--- a/PROK.xlsx
+++ b/PROK.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C621348-1050-4C00-8330-07FD513C43E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF6FA0A-5848-4E2E-AC9B-4A4D7F3AEDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32775" yWindow="4890" windowWidth="26085" windowHeight="17160" xr2:uid="{F6231F09-7C19-4FD1-A39D-D5E58B35E8B3}"/>
+    <workbookView xWindow="52950" yWindow="7710" windowWidth="22230" windowHeight="14240" xr2:uid="{F6231F09-7C19-4FD1-A39D-D5E58B35E8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="rilparencel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Price</t>
   </si>
@@ -66,16 +67,67 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase II REGEN-007 CKD</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>intrakidney injection</t>
+  </si>
+  <si>
+    <t>Group 1 n=24, -5.8 GFR slope to -1.3.</t>
+  </si>
+  <si>
+    <t>Phase III "PROACT-1"</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>autologous</t>
+  </si>
+  <si>
+    <t>Group 2 n=25, -3.4 GFR slope to -1.7.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -88,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,18 +148,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,29 +597,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607C9358-856E-4800-BA0C-4834DFA5698E}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -477,16 +640,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1">
         <f>+I2*I3</f>
-        <v>107.51498043000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>410.62950357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -498,7 +671,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="H6" t="s">
         <v>4</v>
       </c>
@@ -509,16 +687,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>+I4-I5+I6</f>
-        <v>-250.77701957000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <v>52.337503569999967</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>8</v>
       </c>
@@ -527,6 +705,88 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="rilparencel!A1" display="rilparencel" xr:uid="{0639CF25-3306-47A7-A278-9E86AEEC1340}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A9483-0397-4281-8547-5185C0F38842}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A21660D7-A5A8-4210-9632-BF4F4614A2D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>